--- a/Calculadora de TIMER'S.xlsx
+++ b/Calculadora de TIMER'S.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\razer\OneDrive\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\razer\OneDrive\Documentos\GitHub\Proyecto-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A215639-00BD-47A4-A9B5-E726D2DEF08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1651EC77-8737-4FA0-ABCF-918E751CBD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="2" xr2:uid="{365A6D21-703F-489B-A6A6-C11DD201B0AA}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" xr2:uid="{365A6D21-703F-489B-A6A6-C11DD201B0AA}"/>
   </bookViews>
   <sheets>
     <sheet name="TIMER0" sheetId="1" r:id="rId1"/>
@@ -716,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9488BF-33BB-4BD1-8D0F-225D6770D008}">
   <dimension ref="A2:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -772,7 +772,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -808,7 +808,7 @@
       </c>
       <c r="B12">
         <f>(B7*B5)/2^B2</f>
-        <v>3.90625</v>
+        <v>19.53125</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -817,7 +817,7 @@
       </c>
       <c r="B14">
         <f>256-(B5*B7)/B6</f>
-        <v>255.0234375</v>
+        <v>251.1171875</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -826,7 +826,7 @@
       </c>
       <c r="B15">
         <f>(B5*B7)/B6</f>
-        <v>0.9765625</v>
+        <v>4.8828125</v>
       </c>
     </row>
   </sheetData>
@@ -962,7 +962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66F1037-5320-4B3F-9089-1A163AF9E342}">
   <dimension ref="A2:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
